--- a/source/source_spreadsheets/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/source/source_spreadsheets/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\capstat_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84E0EA-872C-476D-9986-6B76043EBF92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060F4295-D27B-4EC2-9470-2884FD37C9C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/STU3/ImplementationGuide/ig</t>
   </si>
   <si>
-    <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/qicore</t>
+  </si>
+  <si>
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -814,15 +814,15 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,156 +865,156 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1126,13 +1126,13 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1168,7 +1168,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/source/source_spreadsheets/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/source/source_spreadsheets/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060F4295-D27B-4EC2-9470-2884FD37C9C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3967D62A-F85D-456F-BE41-432B52419E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -307,9 +307,6 @@
 </t>
   </si>
   <si>
-    <t>Da Vinci DEQM Producer Server **SHALL** be capable of supporting the [FHR Subscrption API](http://hl7.org/fhir/STU3/subscription.html) providing notifications when measure data is available.</t>
-  </si>
-  <si>
     <t>conf_Subscription</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>Da Vinci DEQM Producer Server **SHALL** be capable of supporting the [FHIR Subscription API](http://hl7.org/fhir/STU3/subscription.html) providing notifications when measure data is available.</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/source/source_spreadsheets/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/source/source_spreadsheets/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3967D62A-F85D-456F-BE41-432B52419E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FC4E65-5844-4B18-98EA-51BA536209A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>Value</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>MedicationRequest</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/subscription-deqm</t>
   </si>
   <si>
     <t>Subscription</t>
@@ -320,6 +317,12 @@
   </si>
   <si>
     <t>Da Vinci DEQM Producer Server **SHALL** be capable of supporting the [FHIR Subscription API](http://hl7.org/fhir/STU3/subscription.html) providing notifications when measure data is available.</t>
+  </si>
+  <si>
+    <t>!Subscription</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/subscription-deqm</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -753,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -814,15 +817,15 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +841,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +871,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -882,7 +885,7 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -896,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -910,7 +913,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -924,7 +927,7 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -938,7 +941,7 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -952,7 +955,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -966,7 +969,7 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -980,7 +983,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -994,7 +997,7 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1005,16 +1008,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1031,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,13 +1077,13 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1126,10 +1129,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -1168,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
